--- a/outputs-HGR-r202-archive/g__Fenollaria_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Fenollaria_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,20 +714,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_11.fasta</t>
+          <t>label_UMGS110_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.380164444302426</v>
+        <v>0.3529939502793658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5831960087066185</v>
+        <v>0.6193410925110473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0366395469909556</v>
+        <v>0.02766495720958704</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5831960087066185</v>
+        <v>0.6193410925110473</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -738,20 +738,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_18.fasta</t>
+          <t>label_UMGS110_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.385610875155227</v>
+        <v>0.3542038396740031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5768125632197872</v>
+        <v>0.619609860554285</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03757656162498581</v>
+        <v>0.02618629977171189</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5768125632197872</v>
+        <v>0.619609860554285</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -762,20 +762,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_2.fasta</t>
+          <t>label_UMGS110_5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3697368012294473</v>
+        <v>0.3366008446155567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5925560705541298</v>
+        <v>0.6242890159920631</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03770712821642288</v>
+        <v>0.03911013939238011</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5925560705541298</v>
+        <v>0.6242890159920631</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -786,20 +786,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_15.fasta</t>
+          <t>label_UMGS110_7.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3529939502793658</v>
+        <v>0.3436642067829186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6193410925110473</v>
+        <v>0.6206739414333611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02766495720958704</v>
+        <v>0.03566185178372038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6193410925110473</v>
+        <v>0.6206739414333611</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -810,20 +810,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_16.fasta</t>
+          <t>label_UMGS110_8.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3542038396740031</v>
+        <v>0.3474842356116878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.619609860554285</v>
+        <v>0.6216621580744411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02618629977171189</v>
+        <v>0.0308536063138711</v>
       </c>
       <c r="E13" t="n">
-        <v>0.619609860554285</v>
+        <v>0.6216621580744411</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -834,20 +834,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_5.fasta</t>
+          <t>label_UMGS110_0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3366008446155567</v>
+        <v>0.3348323919166491</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6242890159920631</v>
+        <v>0.6282997905122693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03911013939238011</v>
+        <v>0.03686781757108178</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6242890159920631</v>
+        <v>0.6282997905122693</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_7.fasta</t>
+          <t>label_UMGS110_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3436642067829186</v>
+        <v>0.3412617150682846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6206739414333611</v>
+        <v>0.6294082068989841</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03566185178372038</v>
+        <v>0.0293300780327312</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6206739414333611</v>
+        <v>0.6294082068989841</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_8.fasta</t>
+          <t>label_UMGS110_23.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3474842356116878</v>
+        <v>0.3127270821075978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6216621580744411</v>
+        <v>0.6872729178923801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0308536063138711</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6216621580744411</v>
+        <v>0.6872729178923801</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_0.fasta</t>
+          <t>label_UMGS110_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3348323919166491</v>
+        <v>0.337505608898019</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6282997905122693</v>
+        <v>0.6301459635563079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03686781757108178</v>
+        <v>0.03234842754567306</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6282997905122693</v>
+        <v>0.6301459635563079</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_10.fasta</t>
+          <t>label_UMGS110_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3412617150682846</v>
+        <v>0.3442664233703298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6294082068989841</v>
+        <v>0.639862902640473</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0293300780327312</v>
+        <v>0.01587067398919733</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6294082068989841</v>
+        <v>0.639862902640473</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_23.fasta</t>
+          <t>label_UMGS110_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3127270821075978</v>
+        <v>0.369456630623827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6872729178923801</v>
+        <v>0.6021377034169493</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0.02840566595922383</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6872729178923801</v>
+        <v>0.6021377034169493</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_6.fasta</t>
+          <t>label_UMGS110_17.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.337505608898019</v>
+        <v>0.3687792249145752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6301459635563079</v>
+        <v>0.6018878105226827</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03234842754567306</v>
+        <v>0.02933296456274209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6301459635563079</v>
+        <v>0.6018878105226827</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_9.fasta</t>
+          <t>label_UMGS110_19.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3442664233703298</v>
+        <v>0.3702449948412165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.639862902640473</v>
+        <v>0.6009708793500081</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01587067398919733</v>
+        <v>0.02878412580877526</v>
       </c>
       <c r="E21" t="n">
-        <v>0.639862902640473</v>
+        <v>0.6009708793500081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_13.fasta</t>
+          <t>label_UMGS110_4.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.369456630623827</v>
+        <v>0.3592403440723846</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6021377034169493</v>
+        <v>0.6061391354753637</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02840566595922383</v>
+        <v>0.03462052045225175</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6021377034169493</v>
+        <v>0.6061391354753637</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_17.fasta</t>
+          <t>label_UMGS110_1.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3687792249145752</v>
+        <v>0.3195724835417958</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6018878105226827</v>
+        <v>0.6656159717297384</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02933296456274209</v>
+        <v>0.0148115447284658</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6018878105226827</v>
+        <v>0.6656159717297384</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_19.fasta</t>
+          <t>label_UMGS110_12.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3702449948412165</v>
+        <v>0.3251949872366955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6009708793500081</v>
+        <v>0.6748050127632821</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02878412580877526</v>
+        <v>2.232155410288736e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6009708793500081</v>
+        <v>0.6748050127632821</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_4.fasta</t>
+          <t>label_UMGS110_14.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3592403440723846</v>
+        <v>0.319804053375334</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6061391354753637</v>
+        <v>0.6801959466246437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03462052045225175</v>
+        <v>2.240022778195235e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6061391354753637</v>
+        <v>0.6801959466246437</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_1.fasta</t>
+          <t>label_UMGS110_20.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3195724835417958</v>
+        <v>0.3224713290792711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6656159717297384</v>
+        <v>0.6775286709207068</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0148115447284658</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6656159717297384</v>
+        <v>0.6775286709207068</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1146,20 +1146,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_12.fasta</t>
+          <t>label_UMGS110_21.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3251949872366955</v>
+        <v>0.3016754972080739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6748050127632821</v>
+        <v>0.6983245027919036</v>
       </c>
       <c r="D27" t="n">
-        <v>2.232155410288736e-14</v>
+        <v>2.250034996846459e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6748050127632821</v>
+        <v>0.6983245027919036</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_14.fasta</t>
+          <t>label_UMGS110_22.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.319804053375334</v>
+        <v>0.3206622827083268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6801959466246437</v>
+        <v>0.679337717291651</v>
       </c>
       <c r="D28" t="n">
-        <v>2.240022778195235e-14</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6801959466246437</v>
+        <v>0.679337717291651</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1194,94 +1194,22 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS110_20.fasta</t>
+          <t>label_UMGS110_3.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3224713290792711</v>
+        <v>0.3057104867290544</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6775286709207068</v>
+        <v>0.6761742403088102</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0.01811527296213532</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6775286709207068</v>
+        <v>0.6761742403088102</v>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS110_21.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.3016754972080739</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6983245027919036</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.250034996846459e-14</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.6983245027919036</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS110_22.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.3206622827083268</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.679337717291651</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.220446049250313e-14</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.679337717291651</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS110_3.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.3057104867290544</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.6761742403088102</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.01811527296213532</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6761742403088102</v>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>s__Fenollaria sp900539725</t>
         </is>
@@ -1298,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,20 +1413,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_12.fasta</t>
+          <t>label_UMGS167_0.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3840552719487961</v>
+        <v>0.3498267063395916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5797921862534063</v>
+        <v>0.6196036063353935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03615254179779748</v>
+        <v>0.03056968732501499</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5797921862534063</v>
+        <v>0.6196036063353935</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1509,20 +1437,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_18.fasta</t>
+          <t>label_UMGS167_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3880458181335856</v>
+        <v>0.3496491031872242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5741702367801264</v>
+        <v>0.6224987679653952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03778394508628811</v>
+        <v>0.02785212884738065</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5741702367801264</v>
+        <v>0.6224987679653952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1533,20 +1461,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_21.fasta</t>
+          <t>label_UMGS167_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.387114369022239</v>
+        <v>0.3515480519130076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5736646542831698</v>
+        <v>0.620464736940133</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03922097669459111</v>
+        <v>0.02798721114685939</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5736646542831698</v>
+        <v>0.620464736940133</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1557,20 +1485,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_26.fasta</t>
+          <t>label_UMGS167_2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.387056815743366</v>
+        <v>0.3481704039076648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5796357459745874</v>
+        <v>0.6197893306324974</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03330743828204661</v>
+        <v>0.03204026545983772</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5796357459745874</v>
+        <v>0.6197893306324974</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1581,20 +1509,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_28.fasta</t>
+          <t>label_UMGS167_20.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3672199795421657</v>
+        <v>0.3559390422515534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.604868637458192</v>
+        <v>0.6192911874552907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02791138299964235</v>
+        <v>0.02476977029315599</v>
       </c>
       <c r="E12" t="n">
-        <v>0.604868637458192</v>
+        <v>0.6192911874552907</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1605,20 +1533,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_33.fasta</t>
+          <t>label_UMGS167_32.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3576657357984458</v>
+        <v>0.3446839253569456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.609985408120818</v>
+        <v>0.6277017450768619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03234885608073615</v>
+        <v>0.02761432956619245</v>
       </c>
       <c r="E13" t="n">
-        <v>0.609985408120818</v>
+        <v>0.6277017450768619</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1629,20 +1557,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_34.fasta</t>
+          <t>label_UMGS167_38.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3678017811100452</v>
+        <v>0.3318412326312728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6002217817039868</v>
+        <v>0.6342212317653063</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03197643718596798</v>
+        <v>0.03393753560342097</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6002217817039868</v>
+        <v>0.6342212317653063</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1653,20 +1581,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_40.fasta</t>
+          <t>label_UMGS167_41.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2937432686040684</v>
+        <v>0.2537355273685332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6763905453395632</v>
+        <v>0.6488745747366063</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02986618605636837</v>
+        <v>0.09738989789486063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6763905453395632</v>
+        <v>0.6488745747366063</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1677,20 +1605,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_42.fasta</t>
+          <t>label_UMGS167_5.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2480955723294862</v>
+        <v>0.3466586650961491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6648235486081471</v>
+        <v>0.6205383842274497</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08708087906236674</v>
+        <v>0.03280295067640133</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6648235486081471</v>
+        <v>0.6205383842274497</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1701,20 +1629,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_43.fasta</t>
+          <t>label_UMGS167_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.203826579246677</v>
+        <v>0.3517473766876201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7685910317202624</v>
+        <v>0.6482526233123578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02758238903306051</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7685910317202624</v>
+        <v>0.6482526233123578</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1725,20 +1653,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_6.fasta</t>
+          <t>label_UMGS167_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3759772181878779</v>
+        <v>0.3483642422792384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5870627158412308</v>
+        <v>0.6516357577207393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03696006597089119</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5870627158412308</v>
+        <v>0.6516357577207393</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1749,20 +1677,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_0.fasta</t>
+          <t>label_UMGS167_17.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3498267063395916</v>
+        <v>0.3537974174803473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6196036063353935</v>
+        <v>0.6314309523347347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03056968732501499</v>
+        <v>0.01477163018491801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6196036063353935</v>
+        <v>0.6314309523347347</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1773,20 +1701,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_15.fasta</t>
+          <t>label_UMGS167_24.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3496491031872242</v>
+        <v>0.3428818954243825</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6224987679653952</v>
+        <v>0.6240221914148457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02785212884738065</v>
+        <v>0.03309591316077182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6224987679653952</v>
+        <v>0.6240221914148457</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1797,20 +1725,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_16.fasta</t>
+          <t>label_UMGS167_25.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3515480519130076</v>
+        <v>0.3416998422739259</v>
       </c>
       <c r="C21" t="n">
-        <v>0.620464736940133</v>
+        <v>0.6211424425014186</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02798721114685939</v>
+        <v>0.0371577152246556</v>
       </c>
       <c r="E21" t="n">
-        <v>0.620464736940133</v>
+        <v>0.6211424425014186</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1821,20 +1749,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_2.fasta</t>
+          <t>label_UMGS167_29.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3481704039076648</v>
+        <v>0.3460768319351455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6197893306324974</v>
+        <v>0.6286002072404451</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03204026545983772</v>
+        <v>0.02532296082440949</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6197893306324974</v>
+        <v>0.6286002072404451</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1845,20 +1773,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_20.fasta</t>
+          <t>label_UMGS167_4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3559390422515534</v>
+        <v>0.3380420719623747</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6192911874552907</v>
+        <v>0.6152782722362257</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02476977029315599</v>
+        <v>0.0466796558013997</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6192911874552907</v>
+        <v>0.6152782722362257</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1869,20 +1797,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_32.fasta</t>
+          <t>label_UMGS167_9.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3446839253569456</v>
+        <v>0.3529182076044073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6277017450768619</v>
+        <v>0.6470817923955705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02761432956619245</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6277017450768619</v>
+        <v>0.6470817923955705</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1893,20 +1821,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_38.fasta</t>
+          <t>label_UMGS167_10.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3318412326312728</v>
+        <v>0.3621077729261271</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6342212317653063</v>
+        <v>0.6068221901165981</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03393753560342097</v>
+        <v>0.03107003695727463</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6342212317653063</v>
+        <v>0.6068221901165981</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1917,20 +1845,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_41.fasta</t>
+          <t>label_UMGS167_13.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2537355273685332</v>
+        <v>0.3676018779008658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6488745747366063</v>
+        <v>0.6025222975540633</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09738989789486063</v>
+        <v>0.02987582454507077</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6488745747366063</v>
+        <v>0.6025222975540633</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1941,20 +1869,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_5.fasta</t>
+          <t>label_UMGS167_14.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3466586650961491</v>
+        <v>0.3660606764156637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6205383842274497</v>
+        <v>0.603139507859211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03280295067640133</v>
+        <v>0.03079981572512525</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6205383842274497</v>
+        <v>0.603139507859211</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1965,20 +1893,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_1.fasta</t>
+          <t>label_UMGS167_22.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3517473766876201</v>
+        <v>0.3676502600723314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6482526233123578</v>
+        <v>0.6034721418861486</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0.0288775980415199</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6482526233123578</v>
+        <v>0.6034721418861486</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1989,20 +1917,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_11.fasta</t>
+          <t>label_UMGS167_27.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3483642422792384</v>
+        <v>0.3699025917468638</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6516357577207393</v>
+        <v>0.6015092115217371</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0.02858819673139916</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6516357577207393</v>
+        <v>0.6015092115217371</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2013,20 +1941,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_17.fasta</t>
+          <t>label_UMGS167_3.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3537974174803473</v>
+        <v>0.362142664527993</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6314309523347347</v>
+        <v>0.6053718841696429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01477163018491801</v>
+        <v>0.03248545130236412</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6314309523347347</v>
+        <v>0.6053718841696429</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2037,20 +1965,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_24.fasta</t>
+          <t>label_UMGS167_31.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3428818954243825</v>
+        <v>0.367025690325896</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6240221914148457</v>
+        <v>0.603503679931539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03309591316077182</v>
+        <v>0.02947062974256501</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6240221914148457</v>
+        <v>0.603503679931539</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2061,20 +1989,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_25.fasta</t>
+          <t>label_UMGS167_36.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3416998422739259</v>
+        <v>0.3587307787301361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6211424425014186</v>
+        <v>0.6112635100034378</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0371577152246556</v>
+        <v>0.03000571126642604</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6211424425014186</v>
+        <v>0.6112635100034378</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2085,20 +2013,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_29.fasta</t>
+          <t>label_UMGS167_37.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3460768319351455</v>
+        <v>0.3459590361453532</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6286002072404451</v>
+        <v>0.6144039314198015</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02532296082440949</v>
+        <v>0.03963703243484545</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6286002072404451</v>
+        <v>0.6144039314198015</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2109,20 +2037,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_4.fasta</t>
+          <t>label_UMGS167_7.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3380420719623747</v>
+        <v>0.3671737548575679</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6152782722362257</v>
+        <v>0.6029036748165874</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0466796558013997</v>
+        <v>0.02992257032584468</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6152782722362257</v>
+        <v>0.6029036748165874</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2133,20 +2061,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_9.fasta</t>
+          <t>label_UMGS167_19.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3529182076044073</v>
+        <v>0.3236506688659102</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6470817923955705</v>
+        <v>0.6763493311340676</v>
       </c>
       <c r="D35" t="n">
         <v>2.220446049250313e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6470817923955705</v>
+        <v>0.6763493311340676</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2157,20 +2085,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_10.fasta</t>
+          <t>label_UMGS167_23.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3621077729261271</v>
+        <v>0.3223596703218511</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6068221901165981</v>
+        <v>0.6776403296781267</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03107003695727463</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6068221901165981</v>
+        <v>0.6776403296781267</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2181,20 +2109,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_13.fasta</t>
+          <t>label_UMGS167_30.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3676018779008658</v>
+        <v>0.3216526911444706</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6025222975540633</v>
+        <v>0.6783473088555071</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02987582454507077</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6025222975540633</v>
+        <v>0.6783473088555071</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2205,20 +2133,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_14.fasta</t>
+          <t>label_UMGS167_35.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3660606764156637</v>
+        <v>0.273821637993635</v>
       </c>
       <c r="C38" t="n">
-        <v>0.603139507859211</v>
+        <v>0.6846445527661242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03079981572512525</v>
+        <v>0.0415338092402408</v>
       </c>
       <c r="E38" t="n">
-        <v>0.603139507859211</v>
+        <v>0.6846445527661242</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2229,20 +2157,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_22.fasta</t>
+          <t>label_UMGS167_39.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3676502600723314</v>
+        <v>0.2852184248178388</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6034721418861486</v>
+        <v>0.6894763359090127</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0288775980415199</v>
+        <v>0.02530523927314851</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6034721418861486</v>
+        <v>0.6894763359090127</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2253,286 +2181,22 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS167_27.fasta</t>
+          <t>label_UMGS167_8.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3699025917468638</v>
+        <v>0.3268952744299462</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6015092115217371</v>
+        <v>0.6731047255700316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02858819673139916</v>
+        <v>2.22846842836496e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6015092115217371</v>
+        <v>0.6731047255700316</v>
       </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_3.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.362142664527993</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.6053718841696429</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.03248545130236412</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.6053718841696429</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_31.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.367025690325896</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.603503679931539</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.02947062974256501</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.603503679931539</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_36.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.3587307787301361</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.6112635100034378</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.03000571126642604</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.6112635100034378</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_37.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.3459590361453532</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.6144039314198015</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.03963703243484545</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.6144039314198015</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_7.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.3671737548575679</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.6029036748165874</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.02992257032584468</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.6029036748165874</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_19.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.3236506688659102</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.6763493311340676</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.220446049250313e-14</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.6763493311340676</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_23.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.3223596703218511</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6776403296781267</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.220446049250313e-14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.6776403296781267</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_30.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.3216526911444706</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.6783473088555071</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.220446049250313e-14</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.6783473088555071</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_35.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.273821637993635</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.6846445527661242</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0415338092402408</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.6846445527661242</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_39.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2852184248178388</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.6894763359090127</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.02530523927314851</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.6894763359090127</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__Fenollaria sp900539725</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS167_8.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.3268952744299462</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.6731047255700316</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2.22846842836496e-14</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.6731047255700316</v>
-      </c>
-      <c r="F51" t="inlineStr">
         <is>
           <t>s__Fenollaria sp900539725</t>
         </is>
